--- a/Amex/Data/AMEXWebElements.xlsx
+++ b/Amex/Data/AMEXWebElements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adibi\Desktop\nayna\Team_Automation2018\Amex\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3E2F11-624B-442C-81B3-DE7370F80B03}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BAB033-B7C7-4FC3-B60C-D0C0D0D4BF29}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4360" windowHeight="3990" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="4360" windowHeight="3990" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ABOUT" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="LINKS YOU MAY LIKE" sheetId="3" r:id="rId3"/>
     <sheet name="ADDITIONAL INFORMATION" sheetId="4" r:id="rId4"/>
     <sheet name="LogIn" sheetId="6" r:id="rId5"/>
+    <sheet name="login2" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Contact Us</t>
   </si>
@@ -117,6 +118,36 @@
   </si>
   <si>
     <t>fdsfdsgfdxgfdsgfds</t>
+  </si>
+  <si>
+    <t>input_Username</t>
+  </si>
+  <si>
+    <t>input_Password</t>
+  </si>
+  <si>
+    <t>click_Login</t>
+  </si>
+  <si>
+    <t>Enter UserId</t>
+  </si>
+  <si>
+    <t>Enter Password</t>
+  </si>
+  <si>
+    <t>Submit Login</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>TestStepDetail</t>
+  </si>
+  <si>
+    <t>Keyword ID</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
   </si>
 </sst>
 </file>
@@ -180,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -194,6 +225,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -781,7 +818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB34DF1-687D-4466-9187-03EDD9BB19C7}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -818,4 +855,82 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81517E49-4258-461F-97D2-C94A46CF5F7F}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.26953125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="32.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>